--- a/medicine/Psychotrope/Groppello_di_Mocasina/Groppello_di_Mocasina.xlsx
+++ b/medicine/Psychotrope/Groppello_di_Mocasina/Groppello_di_Mocasina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groppello di Mocasina  est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Groppello di Mocasina  provient du nord de l’Italie. 
 Il est classé recommandé en province de Brescia dans la région Lombardie. En 1998, sa culture couvrait une superficie de 47 ha. 
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groppello di Mocasina  est également connu sous le nom de « Mocasina. »
 </t>
